--- a/WahoClient/wwwroot/ProductList.xlsx
+++ b/WahoClient/wwwroot/ProductList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -156,6 +156,57 @@
   </si>
   <si>
     <t>21St Urban</t>
+  </si>
+  <si>
+    <t>test create 2</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Áo Khoác hồng</t>
+  </si>
+  <si>
+    <t>300000 đồng</t>
+  </si>
+  <si>
+    <t>1/2/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>30/4/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>Local Brand</t>
+  </si>
+  <si>
+    <t>áo 2 lớp gió</t>
+  </si>
+  <si>
+    <t>Quần</t>
+  </si>
+  <si>
+    <t>31/1/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/2/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>áo Tshirt ong mật ver 2</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>1000 đồng</t>
+  </si>
+  <si>
+    <t>A04</t>
   </si>
 </sst>
 </file>
@@ -201,7 +252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,7 +523,7 @@
         <v>28</v>
       </c>
       <c r="R5" s="0">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -847,6 +898,286 @@
       </c>
       <c r="R12" s="0">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="0">
+        <v>100</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="0">
+        <v>10</v>
+      </c>
+      <c r="M13" s="0">
+        <v>1000</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="0">
+        <v>400</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="0">
+        <v>5</v>
+      </c>
+      <c r="M14" s="0">
+        <v>300</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>21</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="0">
+        <v>400</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="0">
+        <v>5</v>
+      </c>
+      <c r="M15" s="0">
+        <v>300</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>22</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="0">
+        <v>200</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="0">
+        <v>5</v>
+      </c>
+      <c r="M16" s="0">
+        <v>200</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="0">
+        <v>200</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="0">
+        <v>5</v>
+      </c>
+      <c r="M17" s="0">
+        <v>5</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="0">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/WahoClient/wwwroot/ProductList.xlsx
+++ b/WahoClient/wwwroot/ProductList.xlsx
@@ -158,7 +158,7 @@
     <t>21St Urban</t>
   </si>
   <si>
-    <t>test create 2</t>
+    <t>test create 2 update</t>
   </si>
   <si>
     <t>test</t>
@@ -170,31 +170,31 @@
     <t>300000 đồng</t>
   </si>
   <si>
+    <t>Local Brand</t>
+  </si>
+  <si>
+    <t>áo 2 lớp gió</t>
+  </si>
+  <si>
+    <t>Quần</t>
+  </si>
+  <si>
+    <t>31/1/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/2/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>áo Tshirt ong mật ver 2</t>
+  </si>
+  <si>
     <t>1/2/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>30/4/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>Local Brand</t>
-  </si>
-  <si>
-    <t>áo 2 lớp gió</t>
-  </si>
-  <si>
-    <t>Quần</t>
-  </si>
-  <si>
-    <t>31/1/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/2/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>áo Tshirt ong mật ver 2</t>
   </si>
   <si>
     <t>A03</t>
@@ -252,7 +252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -364,7 +364,7 @@
         <v>28</v>
       </c>
       <c r="R2" s="0">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -417,7 +417,7 @@
         <v>28</v>
       </c>
       <c r="R3" s="0">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -682,7 +682,7 @@
         <v>28</v>
       </c>
       <c r="R8" s="0">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -897,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="R12" s="0">
-        <v>1000</v>
+        <v>988</v>
       </c>
     </row>
     <row r="13">
@@ -953,7 +953,7 @@
         <v>28</v>
       </c>
       <c r="R13" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -973,13 +973,13 @@
         <v>21</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="I14" s="0">
         <v>400</v>
@@ -997,10 +997,10 @@
         <v>300</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>27</v>
@@ -1029,19 +1029,19 @@
         <v>21</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I15" s="0">
         <v>400</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>25</v>
@@ -1053,10 +1053,10 @@
         <v>300</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>27</v>
@@ -1073,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>39</v>
@@ -1085,10 +1085,10 @@
         <v>41</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>27</v>
@@ -1129,7 +1129,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>63</v>
@@ -1141,10 +1141,10 @@
         <v>41</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>27</v>
@@ -1168,15 +1168,239 @@
         <v>62</v>
       </c>
       <c r="O17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="0">
+        <v>400</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="0">
+        <v>5</v>
+      </c>
+      <c r="M18" s="0">
+        <v>300</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>25</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="P17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="0">
+      <c r="H19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="0">
+        <v>400</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="0">
+        <v>5</v>
+      </c>
+      <c r="M19" s="0">
+        <v>300</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="0">
+        <v>200</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="0">
+        <v>5</v>
+      </c>
+      <c r="M20" s="0">
+        <v>200</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>27</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="0">
+        <v>200</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="0">
+        <v>5</v>
+      </c>
+      <c r="M21" s="0">
+        <v>5</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="0">
         <v>200</v>
       </c>
     </row>

--- a/WahoClient/wwwroot/ProductList.xlsx
+++ b/WahoClient/wwwroot/ProductList.xlsx
@@ -140,10 +140,10 @@
     <t>Có HSD</t>
   </si>
   <si>
-    <t>30/5/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>1/7/2023 12:00:00 AM</t>
+    <t>5/30/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>7/1/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>test update</t>
@@ -158,7 +158,7 @@
     <t>21St Urban</t>
   </si>
   <si>
-    <t>test create 2</t>
+    <t>test create 2 update</t>
   </si>
   <si>
     <t>test</t>
@@ -170,12 +170,6 @@
     <t>300000 đồng</t>
   </si>
   <si>
-    <t>1/2/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>30/4/2023 12:00:00 AM</t>
-  </si>
-  <si>
     <t>Local Brand</t>
   </si>
   <si>
@@ -185,16 +179,22 @@
     <t>Quần</t>
   </si>
   <si>
-    <t>31/1/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/2/2023 12:00:00 AM</t>
+    <t>1/31/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>2/11/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>A02</t>
   </si>
   <si>
     <t>áo Tshirt ong mật ver 2</t>
+  </si>
+  <si>
+    <t>2/1/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>4/30/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>A03</t>
@@ -364,7 +364,7 @@
         <v>28</v>
       </c>
       <c r="R2" s="0">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -417,7 +417,7 @@
         <v>28</v>
       </c>
       <c r="R3" s="0">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -682,7 +682,7 @@
         <v>28</v>
       </c>
       <c r="R8" s="0">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -788,7 +788,7 @@
         <v>28</v>
       </c>
       <c r="R10" s="0">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -841,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="R11" s="0">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -897,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="R12" s="0">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="13">
@@ -973,13 +973,13 @@
         <v>21</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="I14" s="0">
         <v>400</v>
@@ -997,10 +997,10 @@
         <v>300</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>27</v>
@@ -1029,19 +1029,19 @@
         <v>21</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I15" s="0">
         <v>400</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>25</v>
@@ -1053,10 +1053,10 @@
         <v>300</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>27</v>
@@ -1073,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>39</v>
@@ -1085,10 +1085,10 @@
         <v>41</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>27</v>
@@ -1129,7 +1129,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>63</v>
@@ -1141,10 +1141,10 @@
         <v>41</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>27</v>
@@ -1168,7 +1168,7 @@
         <v>62</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P17" s="0" t="s">
         <v>27</v>

--- a/WahoClient/wwwroot/ProductList.xlsx
+++ b/WahoClient/wwwroot/ProductList.xlsx
@@ -140,10 +140,10 @@
     <t>Có HSD</t>
   </si>
   <si>
-    <t>5/30/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>7/1/2023 12:00:00 AM</t>
+    <t>30/5/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>1/7/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>test update</t>
@@ -179,10 +179,10 @@
     <t>Quần</t>
   </si>
   <si>
-    <t>1/31/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>2/11/2023 12:00:00 AM</t>
+    <t>31/1/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/2/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>A02</t>
@@ -191,10 +191,10 @@
     <t>áo Tshirt ong mật ver 2</t>
   </si>
   <si>
-    <t>2/1/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>4/30/2023 12:00:00 AM</t>
+    <t>1/2/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>30/4/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>A03</t>
@@ -252,7 +252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -364,7 +364,7 @@
         <v>28</v>
       </c>
       <c r="R2" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -417,7 +417,7 @@
         <v>28</v>
       </c>
       <c r="R3" s="0">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -788,7 +788,7 @@
         <v>28</v>
       </c>
       <c r="R10" s="0">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -841,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="R11" s="0">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -897,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="R12" s="0">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="13">
@@ -953,7 +953,7 @@
         <v>28</v>
       </c>
       <c r="R13" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -1177,6 +1177,230 @@
         <v>28</v>
       </c>
       <c r="R17" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="0">
+        <v>400</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="0">
+        <v>5</v>
+      </c>
+      <c r="M18" s="0">
+        <v>300</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>25</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="0">
+        <v>400</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="0">
+        <v>5</v>
+      </c>
+      <c r="M19" s="0">
+        <v>300</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="0">
+        <v>200</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="0">
+        <v>5</v>
+      </c>
+      <c r="M20" s="0">
+        <v>200</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>27</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="0">
+        <v>200</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="0">
+        <v>5</v>
+      </c>
+      <c r="M21" s="0">
+        <v>5</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="0">
         <v>200</v>
       </c>
     </row>

--- a/WahoClient/wwwroot/ProductList.xlsx
+++ b/WahoClient/wwwroot/ProductList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -207,6 +207,27 @@
   </si>
   <si>
     <t>A04</t>
+  </si>
+  <si>
+    <t>Mũ cối</t>
+  </si>
+  <si>
+    <t>70000 đồng</t>
+  </si>
+  <si>
+    <t>175000 đồng</t>
+  </si>
+  <si>
+    <t>Mũ cối VN</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>Mũ</t>
+  </si>
+  <si>
+    <t>Min</t>
   </si>
 </sst>
 </file>
@@ -252,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +438,7 @@
         <v>28</v>
       </c>
       <c r="R3" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -523,7 +544,7 @@
         <v>28</v>
       </c>
       <c r="R5" s="0">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +974,7 @@
         <v>28</v>
       </c>
       <c r="R13" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -1401,6 +1422,286 @@
         <v>28</v>
       </c>
       <c r="R21" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>28</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="0">
+        <v>500</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="0">
+        <v>1</v>
+      </c>
+      <c r="M22" s="0">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>29</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="0">
+        <v>400</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="0">
+        <v>5</v>
+      </c>
+      <c r="M23" s="0">
+        <v>300</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>30</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="0">
+        <v>400</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="0">
+        <v>5</v>
+      </c>
+      <c r="M24" s="0">
+        <v>300</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>31</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="0">
+        <v>200</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="0">
+        <v>5</v>
+      </c>
+      <c r="M25" s="0">
+        <v>200</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>32</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="0">
+        <v>200</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="0">
+        <v>5</v>
+      </c>
+      <c r="M26" s="0">
+        <v>5</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26" s="0">
         <v>200</v>
       </c>
     </row>
